--- a/outputs-HGR-r202/test-g__Eubacterium_G_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Eubacterium_G_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Row</t>
   </si>
@@ -88,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -98,14 +98,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,39 +135,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -195,7 +199,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -227,163 +231,163 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0014829284072199595</v>
+        <v>0.0011969685783605089</v>
       </c>
       <c r="C4">
-        <v>0.0034562941051688159</v>
+        <v>0.0028023807576541102</v>
       </c>
       <c r="D4">
-        <v>0.02232571714006612</v>
+        <v>0.34503289187296915</v>
       </c>
       <c r="E4">
-        <v>0.073833580927390285</v>
+        <v>0.076716825196413929</v>
       </c>
       <c r="F4">
-        <v>0.044508979529860299</v>
+        <v>0.0076801476329346891</v>
       </c>
       <c r="G4">
-        <v>0.1257219702981866</v>
+        <v>0.11633562448828003</v>
       </c>
       <c r="H4">
-        <v>0.46995825055076856</v>
+        <v>0.17324261024310772</v>
       </c>
       <c r="I4">
-        <v>0.25871227904133925</v>
+        <v>0.27699255123027977</v>
       </c>
       <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.005924865260593268</v>
+      </c>
+      <c r="C5">
+        <v>0.0080162734461950262</v>
+      </c>
+      <c r="D5">
+        <v>0.49805685841536962</v>
+      </c>
+      <c r="E5">
+        <v>0.071371731782739825</v>
+      </c>
+      <c r="F5">
+        <v>0.00036112071108896531</v>
+      </c>
+      <c r="G5">
+        <v>0.10591554533196283</v>
+      </c>
+      <c r="H5">
+        <v>0.1428330806465769</v>
+      </c>
+      <c r="I5">
+        <v>0.16752052440547355</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.0020504884420269802</v>
+      </c>
+      <c r="C6">
+        <v>0.0011457084273651342</v>
+      </c>
+      <c r="D6">
+        <v>0.47537706619060288</v>
+      </c>
+      <c r="E6">
+        <v>0.010340530436538761</v>
+      </c>
+      <c r="F6">
+        <v>0.0015207075718458071</v>
+      </c>
+      <c r="G6">
+        <v>0.15220535956272624</v>
+      </c>
+      <c r="H6">
+        <v>0.13009035189644899</v>
+      </c>
+      <c r="I6">
+        <v>0.22726978747244528</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.0011969685783605089</v>
-      </c>
-      <c r="C5">
-        <v>0.0028023807576541102</v>
-      </c>
-      <c r="D5">
-        <v>0.34503289187296915</v>
-      </c>
-      <c r="E5">
-        <v>0.076716825196413929</v>
-      </c>
-      <c r="F5">
-        <v>0.0076801476329346891</v>
-      </c>
-      <c r="G5">
-        <v>0.11633562448828003</v>
-      </c>
-      <c r="H5">
-        <v>0.17324261024310772</v>
-      </c>
-      <c r="I5">
-        <v>0.27699255123027977</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.005924865260593268</v>
-      </c>
-      <c r="C6">
-        <v>0.0080162734461950262</v>
-      </c>
-      <c r="D6">
-        <v>0.49805685841536962</v>
-      </c>
-      <c r="E6">
-        <v>0.071371731782739825</v>
-      </c>
-      <c r="F6">
-        <v>0.00036112071108896531</v>
-      </c>
-      <c r="G6">
-        <v>0.10591554533196283</v>
-      </c>
-      <c r="H6">
-        <v>0.1428330806465769</v>
-      </c>
-      <c r="I6">
-        <v>0.16752052440547355</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
-        <v>0.0020504884420269802</v>
+        <v>0.0078770401783974653</v>
       </c>
       <c r="C7">
-        <v>0.0011457084273651342</v>
+        <v>0.0012772263476697561</v>
       </c>
       <c r="D7">
-        <v>0.47537706619060288</v>
+        <v>0.25053225244453203</v>
       </c>
       <c r="E7">
-        <v>0.010340530436538761</v>
+        <v>0.11218761120616735</v>
       </c>
       <c r="F7">
-        <v>0.0015207075718458071</v>
+        <v>0.0095146593567661374</v>
       </c>
       <c r="G7">
-        <v>0.15220535956272624</v>
+        <v>0.13310057791026961</v>
       </c>
       <c r="H7">
-        <v>0.13009035189644899</v>
+        <v>0.19729908277805461</v>
       </c>
       <c r="I7">
-        <v>0.22726978747244528</v>
+        <v>0.28821154977814306</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.0078770401783974653</v>
+        <v>0.0036493826347562528</v>
       </c>
       <c r="C8">
-        <v>0.0012772263476697561</v>
+        <v>0.0029231652617933606</v>
       </c>
       <c r="D8">
-        <v>0.25053225244453203</v>
+        <v>0.407911887031916</v>
       </c>
       <c r="E8">
-        <v>0.11218761120616735</v>
+        <v>0.027086470540693835</v>
       </c>
       <c r="F8">
-        <v>0.0095146593567661374</v>
+        <v>0.00073611955038830701</v>
       </c>
       <c r="G8">
-        <v>0.13310057791026961</v>
+        <v>0.10272149710650638</v>
       </c>
       <c r="H8">
-        <v>0.19729908277805461</v>
+        <v>0.14661246271383896</v>
       </c>
       <c r="I8">
-        <v>0.28821154977814306</v>
+        <v>0.308359015160107</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
